--- a/output/LUAD_statistics_acinar.xlsx
+++ b/output/LUAD_statistics_acinar.xlsx
@@ -60,12 +60,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -117,10 +117,10 @@
     <t>Amplification RIT1</t>
   </si>
   <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
     <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Deletion CDKN2A</t>
   </si>
   <si>
     <t>Deletion MET</t>
@@ -302,7 +302,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
@@ -346,22 +346,22 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1375</v>
+        <v>0.175</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03952847075210474</v>
+        <v>0.05743353646704259</v>
       </c>
       <c r="M3" t="n">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.0441941738241592</v>
       </c>
     </row>
     <row r="4">
@@ -369,25 +369,25 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.37289037520868E-5</v>
+        <v>4.38795826699421E-12</v>
       </c>
       <c r="G4" t="n">
-        <v>1.37574016928994E-11</v>
+        <v>1.74974974000228E-14</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
         <v>50.0</v>
@@ -396,16 +396,16 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.41875</v>
+        <v>0.125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04218428485690955</v>
+        <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.40625</v>
+        <v>0.125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0531147865999248</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -413,43 +413,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.38795826699421E-12</v>
+        <v>4.37289037520868E-5</v>
       </c>
       <c r="G5" t="n">
-        <v>1.74974974000228E-14</v>
+        <v>1.37574016928994E-11</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.125</v>
+        <v>0.425</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.026352313834736494</v>
       </c>
       <c r="M5" t="n">
-        <v>0.125</v>
+        <v>0.40625</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.0441941738241592</v>
       </c>
     </row>
     <row r="6">
@@ -478,22 +478,22 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.10625</v>
+        <v>0.125</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04218428485690955</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.11875</v>
+        <v>0.1125</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0197642353760524</v>
+        <v>0.0395284707521047</v>
       </c>
     </row>
     <row r="7">
@@ -792,10 +792,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K13" t="n">
-        <v>0.55</v>
+        <v>0.5625</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04930066485916347</v>
+        <v>0.05103103630798288</v>
       </c>
       <c r="M13" t="e">
         <v>#NUM!</v>
@@ -880,10 +880,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.84375</v>
+        <v>0.78125</v>
       </c>
       <c r="L15" t="n">
-        <v>0.12926743381240474</v>
+        <v>0.12586506222494345</v>
       </c>
       <c r="M15" t="e">
         <v>#NUM!</v>
@@ -1017,7 +1017,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
@@ -1061,22 +1061,22 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1375</v>
+        <v>0.175</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03952847075210474</v>
+        <v>0.05743353646704259</v>
       </c>
       <c r="M3" t="n">
-        <v>0.14375</v>
+        <v>0.15625</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0421842848569096</v>
+        <v>0.0531147865999248</v>
       </c>
     </row>
     <row r="4">
@@ -1084,25 +1084,25 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.37289037520868E-5</v>
+        <v>4.38795826699421E-12</v>
       </c>
       <c r="G4" t="n">
-        <v>1.37574016928994E-11</v>
+        <v>1.74974974000228E-14</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
         <v>50.0</v>
@@ -1111,16 +1111,16 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.41875</v>
+        <v>0.125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04218428485690955</v>
+        <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.41875</v>
+        <v>0.125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0421842848569096</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -1128,43 +1128,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.38795826699421E-12</v>
+        <v>4.37289037520868E-5</v>
       </c>
       <c r="G5" t="n">
-        <v>1.74974974000228E-14</v>
+        <v>1.37574016928994E-11</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.125</v>
+        <v>0.425</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.026352313834736494</v>
       </c>
       <c r="M5" t="n">
-        <v>0.125</v>
+        <v>0.3875</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.0822850735755479</v>
       </c>
     </row>
     <row r="6">
@@ -1172,7 +1172,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -1243,10 +1243,10 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.10625</v>
+        <v>0.125</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04218428485690955</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
         <v>0.125</v>
@@ -1507,10 +1507,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K13" t="n">
-        <v>0.55</v>
+        <v>0.5625</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04930066485916347</v>
+        <v>0.05103103630798288</v>
       </c>
       <c r="M13" t="e">
         <v>#NUM!</v>
@@ -1595,10 +1595,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.84375</v>
+        <v>0.78125</v>
       </c>
       <c r="L15" t="n">
-        <v>0.12926743381240474</v>
+        <v>0.12586506222494345</v>
       </c>
       <c r="M15" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_acinar.xlsx
+++ b/output/LUAD_statistics_acinar.xlsx
@@ -54,18 +54,18 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -99,28 +99,28 @@
     <t>15</t>
   </si>
   <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
     <t>Mutation TP53</t>
   </si>
   <si>
-    <t>Mutation KRAS</t>
-  </si>
-  <si>
     <t>Amplification TSC2</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
     <t>Mutation RB1</t>
   </si>
   <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
     <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
   </si>
   <si>
     <t>Deletion MET</t>
@@ -287,19 +287,19 @@
         <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E2" t="n">
         <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.08720193504961E-11</v>
+        <v>1.80728584332411E-10</v>
       </c>
       <c r="G2" t="n">
-        <v>1.39570418788465E-12</v>
+        <v>1.40060582134077E-12</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="I2" t="n">
         <v>60.0</v>
@@ -308,16 +308,16 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>0.04370036867375631</v>
       </c>
       <c r="M2" t="n">
-        <v>0.125</v>
+        <v>0.1625</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>0.052704627669473</v>
       </c>
     </row>
     <row r="3">
@@ -325,7 +325,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -334,34 +334,34 @@
         <v>6.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.80728584332411E-10</v>
+        <v>4.37289037520868E-5</v>
       </c>
       <c r="G3" t="n">
-        <v>1.40060582134077E-12</v>
+        <v>1.37574016928994E-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="I3" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.175</v>
+        <v>0.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05743353646704259</v>
+        <v>0.06718548123582124</v>
       </c>
       <c r="M3" t="n">
-        <v>0.15625</v>
+        <v>0.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0441941738241592</v>
+        <v>0.052704627669473</v>
       </c>
     </row>
     <row r="4">
@@ -369,7 +369,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -381,10 +381,10 @@
         <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.38795826699421E-12</v>
+        <v>1.08720193504961E-11</v>
       </c>
       <c r="G4" t="n">
-        <v>1.74974974000228E-14</v>
+        <v>1.39570418788465E-12</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -419,37 +419,37 @@
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.37289037520868E-5</v>
+        <v>4.38795826699421E-12</v>
       </c>
       <c r="G5" t="n">
-        <v>1.37574016928994E-11</v>
+        <v>1.74974974000228E-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.425</v>
+        <v>0.125</v>
       </c>
       <c r="L5" t="n">
-        <v>0.026352313834736494</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.40625</v>
+        <v>0.125</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0441941738241592</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +478,7 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
@@ -490,10 +490,10 @@
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1125</v>
+        <v>0.125</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0395284707521047</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -636,7 +636,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="e">
         <v>#NUM!</v>
@@ -768,7 +768,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -792,10 +792,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5625</v>
+        <v>0.53125</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05103103630798288</v>
+        <v>0.06750771560841522</v>
       </c>
       <c r="M13" t="e">
         <v>#NUM!</v>
@@ -880,10 +880,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.78125</v>
+        <v>0.81875</v>
       </c>
       <c r="L15" t="n">
-        <v>0.12586506222494345</v>
+        <v>0.09969571761671166</v>
       </c>
       <c r="M15" t="e">
         <v>#NUM!</v>
@@ -1002,19 +1002,19 @@
         <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E2" t="n">
         <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.08720193504961E-11</v>
+        <v>1.80728584332411E-10</v>
       </c>
       <c r="G2" t="n">
-        <v>1.39570418788465E-12</v>
+        <v>1.40060582134077E-12</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="I2" t="n">
         <v>60.0</v>
@@ -1023,16 +1023,16 @@
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>0.04370036867375631</v>
       </c>
       <c r="M2" t="n">
-        <v>0.125</v>
+        <v>0.1375</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>0.0263523138347365</v>
       </c>
     </row>
     <row r="3">
@@ -1040,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -1049,34 +1049,34 @@
         <v>6.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.80728584332411E-10</v>
+        <v>4.37289037520868E-5</v>
       </c>
       <c r="G3" t="n">
-        <v>1.40060582134077E-12</v>
+        <v>1.37574016928994E-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="I3" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.175</v>
+        <v>0.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05743353646704259</v>
+        <v>0.06718548123582124</v>
       </c>
       <c r="M3" t="n">
-        <v>0.15625</v>
+        <v>0.425</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0531147865999248</v>
+        <v>0.0395284707521047</v>
       </c>
     </row>
     <row r="4">
@@ -1084,7 +1084,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -1096,10 +1096,10 @@
         <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.38795826699421E-12</v>
+        <v>1.08720193504961E-11</v>
       </c>
       <c r="G4" t="n">
-        <v>1.74974974000228E-14</v>
+        <v>1.39570418788465E-12</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -1134,37 +1134,37 @@
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.37289037520868E-5</v>
+        <v>4.38795826699421E-12</v>
       </c>
       <c r="G5" t="n">
-        <v>1.37574016928994E-11</v>
+        <v>1.74974974000228E-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.425</v>
+        <v>0.125</v>
       </c>
       <c r="L5" t="n">
-        <v>0.026352313834736494</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3875</v>
+        <v>0.125</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0822850735755479</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -1172,7 +1172,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -1216,7 +1216,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -1351,7 +1351,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="e">
         <v>#NUM!</v>
@@ -1483,7 +1483,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -1507,10 +1507,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5625</v>
+        <v>0.53125</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05103103630798288</v>
+        <v>0.06750771560841522</v>
       </c>
       <c r="M13" t="e">
         <v>#NUM!</v>
@@ -1595,10 +1595,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.78125</v>
+        <v>0.81875</v>
       </c>
       <c r="L15" t="n">
-        <v>0.12586506222494345</v>
+        <v>0.09969571761671166</v>
       </c>
       <c r="M15" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_acinar.xlsx
+++ b/output/LUAD_statistics_acinar.xlsx
@@ -54,18 +54,18 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -99,28 +99,28 @@
     <t>15</t>
   </si>
   <si>
+    <t>Mutation TP53</t>
+  </si>
+  <si>
     <t>Mutation KRAS</t>
   </si>
   <si>
-    <t>Mutation TP53</t>
-  </si>
-  <si>
     <t>Amplification TSC2</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
     <t>Amplification RIT1</t>
   </si>
   <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
     <t>Mutation RB1</t>
-  </si>
-  <si>
-    <t>Deletion CDKN2A</t>
   </si>
   <si>
     <t>Deletion MET</t>
@@ -287,37 +287,37 @@
         <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E2" t="n">
         <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.80728584332411E-10</v>
+        <v>4.38795826699421E-12</v>
       </c>
       <c r="G2" t="n">
-        <v>1.40060582134077E-12</v>
+        <v>1.74974974000228E-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04370036867375631</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1625</v>
+        <v>0.125</v>
       </c>
       <c r="N2" t="n">
-        <v>0.052704627669473</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -325,7 +325,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -346,22 +346,22 @@
         <v>0.0178571428571429</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06718548123582124</v>
+        <v>0.026352313834736494</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4</v>
+        <v>0.41875</v>
       </c>
       <c r="N3" t="n">
-        <v>0.052704627669473</v>
+        <v>0.0421842848569096</v>
       </c>
     </row>
     <row r="4">
@@ -375,37 +375,37 @@
         <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E4" t="n">
         <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.08720193504961E-11</v>
+        <v>1.80728584332411E-10</v>
       </c>
       <c r="G4" t="n">
-        <v>1.39570418788465E-12</v>
+        <v>1.40060582134077E-12</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.125</v>
+        <v>0.1625</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>0.05270462766947299</v>
       </c>
       <c r="M4" t="n">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>0.0441941738241592</v>
       </c>
     </row>
     <row r="5">
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -425,16 +425,16 @@
         <v>2.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.38795826699421E-12</v>
+        <v>1.08720193504961E-11</v>
       </c>
       <c r="G5" t="n">
-        <v>1.74974974000228E-14</v>
+        <v>1.39570418788465E-12</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
@@ -490,10 +490,10 @@
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.125</v>
+        <v>0.1125</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>0.0395284707521047</v>
       </c>
     </row>
     <row r="7">
@@ -636,7 +636,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="e">
         <v>#NUM!</v>
@@ -768,7 +768,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -792,10 +792,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K13" t="n">
-        <v>0.53125</v>
+        <v>0.5875</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06750771560841522</v>
+        <v>0.10290907529357057</v>
       </c>
       <c r="M13" t="e">
         <v>#NUM!</v>
@@ -880,10 +880,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.81875</v>
+        <v>0.83125</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09969571761671166</v>
+        <v>0.12517349071499834</v>
       </c>
       <c r="M15" t="e">
         <v>#NUM!</v>
@@ -1002,37 +1002,37 @@
         <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E2" t="n">
         <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.80728584332411E-10</v>
+        <v>4.38795826699421E-12</v>
       </c>
       <c r="G2" t="n">
-        <v>1.40060582134077E-12</v>
+        <v>1.74974974000228E-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04370036867375631</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1375</v>
+        <v>0.125</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0263523138347365</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1040,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -1061,22 +1061,22 @@
         <v>0.0178571428571429</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06718548123582124</v>
+        <v>0.026352313834736494</v>
       </c>
       <c r="M3" t="n">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0395284707521047</v>
+        <v>0.0437003686737563</v>
       </c>
     </row>
     <row r="4">
@@ -1090,31 +1090,31 @@
         <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E4" t="n">
         <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.08720193504961E-11</v>
+        <v>1.80728584332411E-10</v>
       </c>
       <c r="G4" t="n">
-        <v>1.39570418788465E-12</v>
+        <v>1.40060582134077E-12</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.125</v>
+        <v>0.1625</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>0.05270462766947299</v>
       </c>
       <c r="M4" t="n">
         <v>0.125</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -1140,16 +1140,16 @@
         <v>2.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.38795826699421E-12</v>
+        <v>1.08720193504961E-11</v>
       </c>
       <c r="G5" t="n">
-        <v>1.74974974000228E-14</v>
+        <v>1.39570418788465E-12</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
@@ -1172,7 +1172,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -1216,7 +1216,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -1351,7 +1351,7 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="e">
         <v>#NUM!</v>
@@ -1483,7 +1483,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -1507,10 +1507,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K13" t="n">
-        <v>0.53125</v>
+        <v>0.5875</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06750771560841522</v>
+        <v>0.10290907529357057</v>
       </c>
       <c r="M13" t="e">
         <v>#NUM!</v>
@@ -1595,10 +1595,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.81875</v>
+        <v>0.83125</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09969571761671166</v>
+        <v>0.12517349071499834</v>
       </c>
       <c r="M15" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_acinar.xlsx
+++ b/output/LUAD_statistics_acinar.xlsx
@@ -57,12 +57,12 @@
     <t>3</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -114,10 +114,10 @@
     <t>Deletion CDKN2A</t>
   </si>
   <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
     <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
   </si>
   <si>
     <t>Mutation RB1</t>
@@ -302,7 +302,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
@@ -334,34 +334,34 @@
         <v>6.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.37289037520868E-5</v>
+        <v>1.80728584332411E-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.37574016928994E-11</v>
+        <v>1.40060582134077E-12</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.425</v>
+        <v>0.125</v>
       </c>
       <c r="L3" t="n">
-        <v>0.026352313834736494</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.41875</v>
+        <v>0.1375</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0421842848569096</v>
+        <v>0.0263523138347365</v>
       </c>
     </row>
     <row r="4">
@@ -378,34 +378,34 @@
         <v>6.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.80728584332411E-10</v>
+        <v>4.37289037520868E-5</v>
       </c>
       <c r="G4" t="n">
-        <v>1.40060582134077E-12</v>
+        <v>1.37574016928994E-11</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="I4" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1625</v>
+        <v>0.4</v>
       </c>
       <c r="L4" t="n">
         <v>0.05270462766947299</v>
       </c>
       <c r="M4" t="n">
-        <v>0.15625</v>
+        <v>0.4125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0441941738241592</v>
+        <v>0.052704627669473</v>
       </c>
     </row>
     <row r="5">
@@ -434,7 +434,7 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
@@ -478,7 +478,7 @@
         <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
@@ -490,10 +490,10 @@
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1125</v>
+        <v>0.125</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0395284707521047</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -792,10 +792,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5875</v>
+        <v>0.5625</v>
       </c>
       <c r="L13" t="n">
-        <v>0.10290907529357057</v>
+        <v>0.06588078458684124</v>
       </c>
       <c r="M13" t="e">
         <v>#NUM!</v>
@@ -880,10 +880,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.83125</v>
+        <v>0.8</v>
       </c>
       <c r="L15" t="n">
-        <v>0.12517349071499834</v>
+        <v>0.10540925533894598</v>
       </c>
       <c r="M15" t="e">
         <v>#NUM!</v>
@@ -1017,7 +1017,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
@@ -1049,34 +1049,34 @@
         <v>6.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.37289037520868E-5</v>
+        <v>1.80728584332411E-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.37574016928994E-11</v>
+        <v>1.40060582134077E-12</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.425</v>
+        <v>0.125</v>
       </c>
       <c r="L3" t="n">
-        <v>0.026352313834736494</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4125</v>
+        <v>0.1625</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0437003686737563</v>
+        <v>0.060380736442456</v>
       </c>
     </row>
     <row r="4">
@@ -1093,34 +1093,34 @@
         <v>6.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.80728584332411E-10</v>
+        <v>4.37289037520868E-5</v>
       </c>
       <c r="G4" t="n">
-        <v>1.40060582134077E-12</v>
+        <v>1.37574016928994E-11</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="I4" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1625</v>
+        <v>0.4</v>
       </c>
       <c r="L4" t="n">
         <v>0.05270462766947299</v>
       </c>
       <c r="M4" t="n">
-        <v>0.125</v>
+        <v>0.4125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>0.0437003686737563</v>
       </c>
     </row>
     <row r="5">
@@ -1149,7 +1149,7 @@
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
@@ -1205,10 +1205,10 @@
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1875</v>
+        <v>0.18125</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="7">
@@ -1216,7 +1216,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -1507,10 +1507,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5875</v>
+        <v>0.5625</v>
       </c>
       <c r="L13" t="n">
-        <v>0.10290907529357057</v>
+        <v>0.06588078458684124</v>
       </c>
       <c r="M13" t="e">
         <v>#NUM!</v>
@@ -1595,10 +1595,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.83125</v>
+        <v>0.8</v>
       </c>
       <c r="L15" t="n">
-        <v>0.12517349071499834</v>
+        <v>0.10540925533894598</v>
       </c>
       <c r="M15" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_acinar.xlsx
+++ b/output/LUAD_statistics_acinar.xlsx
@@ -54,6 +54,9 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -63,9 +66,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -111,6 +111,9 @@
     <t>NA</t>
   </si>
   <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
     <t>Deletion CDKN2A</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
   </si>
   <si>
     <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Mutation RB1</t>
   </si>
   <si>
     <t>Deletion MET</t>
@@ -293,16 +293,16 @@
         <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.38795826699421E-12</v>
+        <v>8.80331277435398E-6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74974974000228E-14</v>
+        <v>3.17014370864701E-5</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
@@ -325,28 +325,28 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E3" t="n">
         <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.80728584332411E-10</v>
+        <v>6.79891526130806E-6</v>
       </c>
       <c r="G3" t="n">
-        <v>1.40060582134077E-12</v>
+        <v>2.04009799368455E-6</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0625</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
@@ -358,10 +358,10 @@
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1375</v>
+        <v>0.125</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0263523138347365</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -378,34 +378,34 @@
         <v>6.0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.37289037520868E-5</v>
+        <v>9.47096493073698E-5</v>
       </c>
       <c r="G4" t="n">
-        <v>1.37574016928994E-11</v>
+        <v>1.261230266548E-5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4</v>
+        <v>0.14375</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05270462766947299</v>
+        <v>0.030190368221227996</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4125</v>
+        <v>0.1375</v>
       </c>
       <c r="N4" t="n">
-        <v>0.052704627669473</v>
+        <v>0.0395284707521047</v>
       </c>
     </row>
     <row r="5">
@@ -413,25 +413,25 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.08720193504961E-11</v>
+        <v>0.00667870018352043</v>
       </c>
       <c r="G5" t="n">
-        <v>1.39570418788465E-12</v>
+        <v>4.16803049946243E-5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>0.0631868131868132</v>
       </c>
       <c r="I5" t="n">
         <v>20.0</v>
@@ -440,16 +440,16 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.125</v>
+        <v>0.36875</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.07482618748361655</v>
       </c>
       <c r="M5" t="n">
-        <v>0.125</v>
+        <v>0.39375</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.0662093690919613</v>
       </c>
     </row>
     <row r="6">
@@ -469,10 +469,10 @@
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.48103016652345E-4</v>
+        <v>0.0104113331621715</v>
       </c>
       <c r="G6" t="n">
-        <v>1.24644936956966E-7</v>
+        <v>5.21143842980615E-4</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -484,16 +484,16 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.125</v>
+        <v>0.1125</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0</v>
+        <v>0.026352313834736494</v>
       </c>
       <c r="M6" t="n">
-        <v>0.125</v>
+        <v>0.11875</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="7">
@@ -792,10 +792,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5625</v>
+        <v>0.55625</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06588078458684124</v>
+        <v>0.08041774610674493</v>
       </c>
       <c r="M13" t="e">
         <v>#NUM!</v>
@@ -880,10 +880,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8</v>
+        <v>0.7875</v>
       </c>
       <c r="L15" t="n">
-        <v>0.10540925533894598</v>
+        <v>0.12219065248845984</v>
       </c>
       <c r="M15" t="e">
         <v>#NUM!</v>
@@ -1008,16 +1008,16 @@
         <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.38795826699421E-12</v>
+        <v>8.80331277435398E-6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74974974000228E-14</v>
+        <v>3.17014370864701E-5</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
@@ -1040,28 +1040,28 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E3" t="n">
         <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.80728584332411E-10</v>
+        <v>6.79891526130806E-6</v>
       </c>
       <c r="G3" t="n">
-        <v>1.40060582134077E-12</v>
+        <v>2.04009799368455E-6</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0625</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
@@ -1073,10 +1073,10 @@
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1625</v>
+        <v>0.125</v>
       </c>
       <c r="N3" t="n">
-        <v>0.060380736442456</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -1093,34 +1093,34 @@
         <v>6.0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.37289037520868E-5</v>
+        <v>9.47096493073698E-5</v>
       </c>
       <c r="G4" t="n">
-        <v>1.37574016928994E-11</v>
+        <v>1.261230266548E-5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4</v>
+        <v>0.14375</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05270462766947299</v>
+        <v>0.030190368221227996</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4125</v>
+        <v>0.13125</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0437003686737563</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="5">
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.08720193504961E-11</v>
+        <v>0.00667870018352043</v>
       </c>
       <c r="G5" t="n">
-        <v>1.39570418788465E-12</v>
+        <v>4.16803049946243E-5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>0.0631868131868132</v>
       </c>
       <c r="I5" t="n">
         <v>20.0</v>
@@ -1155,16 +1155,16 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.125</v>
+        <v>0.36875</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.07482618748361655</v>
       </c>
       <c r="M5" t="n">
-        <v>0.125</v>
+        <v>0.39375</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.0662093690919613</v>
       </c>
     </row>
     <row r="6">
@@ -1172,7 +1172,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -1184,13 +1184,13 @@
         <v>2.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.202909796490355</v>
+        <v>0.306837806010361</v>
       </c>
       <c r="G6" t="n">
-        <v>4.14289353393076E-5</v>
+        <v>0.0103016181172513</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00833333333333333</v>
+        <v>0.025</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -1205,10 +1205,10 @@
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.18125</v>
+        <v>0.175</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0197642353760524</v>
+        <v>0.0395284707521047</v>
       </c>
     </row>
     <row r="7">
@@ -1216,7 +1216,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -1228,10 +1228,10 @@
         <v>1.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0127091692721743</v>
+        <v>0.0104113331621715</v>
       </c>
       <c r="G7" t="n">
-        <v>3.01216467265768E-5</v>
+        <v>5.21143842980615E-4</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
@@ -1240,19 +1240,19 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.125</v>
+        <v>0.1125</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0</v>
+        <v>0.026352313834736494</v>
       </c>
       <c r="M7" t="n">
-        <v>0.125</v>
+        <v>0.11875</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0</v>
+        <v>0.0197642353760524</v>
       </c>
     </row>
     <row r="8">
@@ -1272,13 +1272,13 @@
         <v>4.0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.47777505252671E-13</v>
+        <v>7.28142334855505E-6</v>
       </c>
       <c r="G8" t="n">
-        <v>7.51363994397306E-15</v>
+        <v>2.05783289705881E-6</v>
       </c>
       <c r="H8" t="n">
-        <v>0.181318681318681</v>
+        <v>0.271978021978022</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -1507,10 +1507,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5625</v>
+        <v>0.55625</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06588078458684124</v>
+        <v>0.08041774610674493</v>
       </c>
       <c r="M13" t="e">
         <v>#NUM!</v>
@@ -1595,10 +1595,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8</v>
+        <v>0.7875</v>
       </c>
       <c r="L15" t="n">
-        <v>0.10540925533894598</v>
+        <v>0.12219065248845984</v>
       </c>
       <c r="M15" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_acinar.xlsx
+++ b/output/LUAD_statistics_acinar.xlsx
@@ -54,18 +54,18 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -111,16 +111,16 @@
     <t>NA</t>
   </si>
   <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
     <t>Mutation RB1</t>
-  </si>
-  <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
   </si>
   <si>
     <t>Deletion MET</t>
@@ -293,13 +293,13 @@
         <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.80331277435398E-6</v>
+        <v>6.79891526130806E-6</v>
       </c>
       <c r="G2" t="n">
-        <v>3.17014370864701E-5</v>
+        <v>2.04009799368455E-6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.0625</v>
       </c>
       <c r="I2" t="n">
         <v>80.0</v>
@@ -325,40 +325,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" t="n">
-        <v>6.79891526130806E-6</v>
+        <v>0.00667870018352043</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04009799368455E-6</v>
+        <v>4.16803049946243E-5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0625</v>
+        <v>0.0631868131868132</v>
       </c>
       <c r="I3" t="n">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.125</v>
+        <v>0.4125</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.05270462766947299</v>
       </c>
       <c r="M3" t="n">
-        <v>0.125</v>
+        <v>0.4375</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -390,22 +390,22 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.14375</v>
+        <v>0.13125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.030190368221227996</v>
+        <v>0.01976423537605237</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1375</v>
+        <v>0.15625</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0395284707521047</v>
+        <v>0.0441941738241592</v>
       </c>
     </row>
     <row r="5">
@@ -413,43 +413,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00667870018352043</v>
+        <v>8.80331277435398E-6</v>
       </c>
       <c r="G5" t="n">
-        <v>4.16803049946243E-5</v>
+        <v>3.17014370864701E-5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0631868131868132</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.36875</v>
+        <v>0.125</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07482618748361655</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.39375</v>
+        <v>0.125</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0662093690919613</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -484,16 +484,16 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.1125</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.026352313834736494</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.11875</v>
-      </c>
       <c r="N6" t="n">
-        <v>0.0197642353760524</v>
+        <v>0.0395284707521047</v>
       </c>
     </row>
     <row r="7">
@@ -792,10 +792,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K13" t="n">
-        <v>0.55625</v>
+        <v>0.5375</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08041774610674493</v>
+        <v>0.04370036867375631</v>
       </c>
       <c r="M13" t="e">
         <v>#NUM!</v>
@@ -880,10 +880,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7875</v>
+        <v>0.78125</v>
       </c>
       <c r="L15" t="n">
-        <v>0.12219065248845984</v>
+        <v>0.11121956512532616</v>
       </c>
       <c r="M15" t="e">
         <v>#NUM!</v>
@@ -1008,13 +1008,13 @@
         <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.80331277435398E-6</v>
+        <v>6.79891526130806E-6</v>
       </c>
       <c r="G2" t="n">
-        <v>3.17014370864701E-5</v>
+        <v>2.04009799368455E-6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.0625</v>
       </c>
       <c r="I2" t="n">
         <v>80.0</v>
@@ -1040,43 +1040,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" t="n">
-        <v>6.79891526130806E-6</v>
+        <v>0.00667870018352043</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04009799368455E-6</v>
+        <v>4.16803049946243E-5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0625</v>
+        <v>0.0631868131868132</v>
       </c>
       <c r="I3" t="n">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.125</v>
+        <v>0.4125</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.05270462766947299</v>
       </c>
       <c r="M3" t="n">
-        <v>0.125</v>
+        <v>0.4125</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>0.0437003686737563</v>
       </c>
     </row>
     <row r="4">
@@ -1105,22 +1105,22 @@
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.14375</v>
+        <v>0.13125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.030190368221227996</v>
+        <v>0.01976423537605237</v>
       </c>
       <c r="M4" t="n">
-        <v>0.13125</v>
+        <v>0.1375</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0197642353760524</v>
+        <v>0.0395284707521047</v>
       </c>
     </row>
     <row r="5">
@@ -1128,43 +1128,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00667870018352043</v>
+        <v>8.80331277435398E-6</v>
       </c>
       <c r="G5" t="n">
-        <v>4.16803049946243E-5</v>
+        <v>3.17014370864701E-5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0631868131868132</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.36875</v>
+        <v>0.125</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07482618748361655</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.39375</v>
+        <v>0.125</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0662093690919613</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -1172,7 +1172,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -1205,10 +1205,10 @@
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.175</v>
+        <v>0.1875</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0395284707521047</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -1243,16 +1243,16 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1125</v>
+        <v>0.125</v>
       </c>
       <c r="L7" t="n">
-        <v>0.026352313834736494</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.11875</v>
+        <v>0.10625</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0197642353760524</v>
+        <v>0.0421842848569096</v>
       </c>
     </row>
     <row r="8">
@@ -1507,10 +1507,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K13" t="n">
-        <v>0.55625</v>
+        <v>0.5375</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08041774610674493</v>
+        <v>0.04370036867375631</v>
       </c>
       <c r="M13" t="e">
         <v>#NUM!</v>
@@ -1595,10 +1595,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7875</v>
+        <v>0.78125</v>
       </c>
       <c r="L15" t="n">
-        <v>0.12219065248845984</v>
+        <v>0.11121956512532616</v>
       </c>
       <c r="M15" t="e">
         <v>#NUM!</v>
